--- a/SeleniumJava/Config/Login.xlsx
+++ b/SeleniumJava/Config/Login.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Selenium\Java\SeleniumJava\Config\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="44">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -167,6 +167,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -504,11 +505,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="95.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.77734375"/>
+    <col min="2" max="2" customWidth="true" width="16.44140625"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.44140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="6.0"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="95.5546875"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -529,53 +530,53 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="0">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E2" t="s" s="0">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="0">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="D4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s" s="0">
         <v>28</v>
       </c>
     </row>
@@ -594,14 +595,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.33203125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.21875"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.33203125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.21875"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.6640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="29.6640625"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -631,140 +632,140 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>19</v>
       </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G9" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="F10" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G10" t="s" s="0">
         <v>41</v>
       </c>
     </row>
@@ -787,14 +788,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.33203125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="17.33203125"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.44140625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.109375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.6640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -827,109 +828,109 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s" s="0">
         <v>41</v>
       </c>
     </row>
@@ -948,14 +949,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="14.33203125"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.109375"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.33203125"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="11.109375"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="13.109375"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.6640625"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="6.0"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -988,109 +989,109 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="F2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>17</v>
       </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="F3" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G4" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="F5" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="F6" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G6" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>39</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="G7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F8" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="G8" t="s" s="0">
         <v>41</v>
       </c>
     </row>

--- a/SeleniumJava/Config/Login.xlsx
+++ b/SeleniumJava/Config/Login.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\Selenium\Java\SeleniumJava\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jun11\git\SeleniumJava\SeleniumJava\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90CF3B84-47CF-4AA9-81DA-857DC41BE4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B2AC95-61AC-41F0-8693-328AC98FAF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="44">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -500,7 +500,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,7 +542,7 @@
       <c r="D2" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -559,7 +559,7 @@
       <c r="D3" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -576,7 +576,7 @@
       <c r="D4" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="E4" t="s">
         <v>28</v>
       </c>
     </row>
